--- a/biology/Botanique/Cissus_verticillata/Cissus_verticillata.xlsx
+++ b/biology/Botanique/Cissus_verticillata/Cissus_verticillata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cissus verticillata, appelée liane molle ou liane a de l'eau aux Antilles françaises ou liane brûlante aux Saintes, est une liane de la famille des Vitaceae, à tiges assez succulentes, originaire des Antilles, du Mexique, d'Amérique centrale et du nord de l'Amérique du Sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La liane molle[1] est une liane à tiges un peu succulentes, glabres et à vrilles grêles. Elle peut s'élever sur des arbres de grande taille.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liane molle est une liane à tiges un peu succulentes, glabres et à vrilles grêles. Elle peut s'élever sur des arbres de grande taille.
 Les feuilles sont simples, alternes, largement ovales, luisantes, vert clair, charnues, de 4-11 × 3-9 cm, à base tronquée ou cordée, à marge serretée.
 Les inflorescences ombelliformes, souvent rougeâtres, portent de petites fleurs jaune-verdâtre à rouges, à 4 pétales triangulaires de 2 mm. La floraison a lieu de juin à septembre.
 Le fruit est une baie subglobulaire, noire à maturité, de 5-7 mm qui est consommée par les oiseaux.
@@ -545,7 +559,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Cissus est réparti du sud de la Floride, au Mexique, Amérique centrale, Antilles, nord de l'Amérique du Sud.
 Elle pousse dans les forêts xéro-mésophiles. Elle est assez commune aux Antilles françaises.
@@ -577,9 +593,11 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a été extrait des feuilles : de la tyramine, des glycosides de coumarine, deux flavonoïdes et deux stéroïdes. De la fraction aqueuse, il a été extrait de la lutéonine, du kaempférol[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a été extrait des feuilles : de la tyramine, des glycosides de coumarine, deux flavonoïdes et deux stéroïdes. De la fraction aqueuse, il a été extrait de la lutéonine, du kaempférol.
 </t>
         </is>
       </c>
@@ -608,12 +626,14 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aux Antilles, la tige de la liane molle, débarrassée de son écorce, servait à confectionner de solides liens[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aux Antilles, la tige de la liane molle, débarrassée de son écorce, servait à confectionner de solides liens.
 On tirait de "l'eau" des jeunes tiges aqueuses pour apaiser la soif des fiévreux.
 Les bourgeons entrent dans la composition de sirops contre les maux d'estomac.
-Au Brésil, Cissus verticillata est couramment utilisé pour le traitement du diabète. Il a été montré que l'administration de la fraction extraite au méthanol des feuilles à des rats diabétiques diminue leur taux de glucose[2]. Cet effet pourrait être dû à la présence de tyramine  dans les feuilles.
+Au Brésil, Cissus verticillata est couramment utilisé pour le traitement du diabète. Il a été montré que l'administration de la fraction extraite au méthanol des feuilles à des rats diabétiques diminue leur taux de glucose. Cet effet pourrait être dû à la présence de tyramine  dans les feuilles.
 			Fruit
 			Liane molle, Hawaii
 </t>
